--- a/万昌律所客户需提供账号及资料 v1.0 20171009 - 万昌在线律所APP(1).xlsx
+++ b/万昌律所客户需提供账号及资料 v1.0 20171009 - 万昌在线律所APP(1).xlsx
@@ -354,10 +354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -438,6 +438,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -453,9 +461,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,24 +544,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,53 +559,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,22 +573,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -601,181 +601,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,54 +867,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -949,6 +901,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -970,10 +970,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,133 +982,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/万昌律所客户需提供账号及资料 v1.0 20171009 - 万昌在线律所APP(1).xlsx
+++ b/万昌律所客户需提供账号及资料 v1.0 20171009 - 万昌在线律所APP(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>企秀项目账号及资料清单</t>
   </si>
@@ -348,16 +348,22 @@
   <si>
     <t>eUu36XbbJwHtp9z7lSFpRg==</t>
   </si>
+  <si>
+    <t>三星</t>
+  </si>
+  <si>
+    <t>Wcgk668-668</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -438,6 +444,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -446,111 +565,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -560,19 +574,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -595,49 +601,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,133 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,20 +873,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,6 +891,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,39 +968,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -970,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,16 +988,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,119 +1006,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,6 +1216,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1658,10 +1667,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2451,7 +2460,7 @@
       <c r="D64" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="34" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2462,7 +2471,7 @@
       <c r="D65" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="35" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2472,6 +2481,22 @@
       </c>
       <c r="E66" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2483,6 +2508,7 @@
     <hyperlink ref="C58" r:id="rId9" display="szwcgk@163.com" tooltip="mailto:szwcgk@163.com"/>
     <hyperlink ref="C37" r:id="rId9" display="szwcgk@163.com" tooltip="mailto:szwcgk@163.com"/>
     <hyperlink ref="C64" r:id="rId9" display="szwcgk@163.com" tooltip="mailto:szwcgk@163.com"/>
+    <hyperlink ref="C69" r:id="rId9" display="szwcgk@163.com" tooltip="mailto:szwcgk@163.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
